--- a/exceltocsv/public/reports/employee dtr/Gatan, Jr.,Mario Haris.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Gatan, Jr.,Mario Haris.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="72" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="73" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>TOTAL ABSENCES</t>
   </si>
   <si>
     <t>ACCUMULATED OT</t>
@@ -471,7 +474,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="C5" state="frozenSplit" activePane="bottomRight" ySplit="4" xSplit="2"/>
@@ -1227,119 +1230,106 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+    <row r="23">
+      <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <f>INT(LEFT(C25,2))</f>
-      </c>
-      <c r="R24" s="0" t="str">
-        <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
-      </c>
-      <c r="S24" s="0" t="str">
-        <f>INT(LEFT(R24,1))</f>
-      </c>
-      <c r="T24" s="0" t="str">
-        <f>RIGHT(R24,LEN(R24)-2)+0</f>
-      </c>
-      <c r="U24" s="0" t="str">
-        <f>Q24*8*60+S24*60+T24</f>
-      </c>
-    </row>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
+        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="12" t="s">
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1360,51 +1350,51 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
+        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1425,22 +1415,22 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
+        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>56</v>
@@ -1490,18 +1480,18 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
+      <c r="C28" s="5" t="str">
+        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -1555,22 +1545,22 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>68</v>
+      <c r="C29" s="5" t="str">
+        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>56</v>
@@ -1603,77 +1593,207 @@
         <v>56</v>
       </c>
       <c r="Q29" s="0" t="str">
-        <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>56</v>
+        <f>INT(LEFT(C30,2))</f>
+      </c>
+      <c r="R29" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C30,LEN(C30)-2),1)=".",RIGHT(C30,LEN(C30)-3),RIGHT(C30,LEN(C30)-2))</f>
       </c>
       <c r="S29" s="0" t="str">
-        <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
+        <f>INT(LEFT(R29,1))</f>
       </c>
       <c r="T29" s="0" t="str">
-        <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
+        <f>RIGHT(R29,LEN(R29)-2)+0</f>
       </c>
       <c r="U29" s="0" t="str">
-        <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
+        <f>Q29*8*60+S29*60+T29</f>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="0" t="str">
+        <f>INT(LEFT(C31,2))</f>
+      </c>
+      <c r="R30" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C31,LEN(C31)-2),1)=".",RIGHT(C31,LEN(C31)-3),RIGHT(C31,LEN(C31)-2))</f>
+      </c>
+      <c r="S30" s="0" t="str">
+        <f>INT(LEFT(R30,1))</f>
+      </c>
+      <c r="T30" s="0" t="str">
+        <f>RIGHT(R30,LEN(R30)-2)+0</f>
+      </c>
+      <c r="U30" s="0" t="str">
+        <f>Q30*8*60+S30*60+T30</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="0" t="str">
-        <f>U29/60</f>
+      <c r="G31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="0" t="str">
+        <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" s="0" t="str">
+        <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
+      </c>
+      <c r="T31" s="0" t="str">
+        <f>T26+T25+IF(T27&gt;T29,T27-T29,0)+IF(T28&gt;T30,T28-T30,0)</f>
+      </c>
+      <c r="U31" s="0" t="str">
+        <f>U26+U25+IF(U27&gt;U29,U27-U29,0)+IF(U28&gt;U30,U28-U30,0)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="0" t="str">
+        <f>U31/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="25">
+  <mergeCells count="28">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1685,12 +1805,11 @@
     <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:P23"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:P26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:P28"/>
@@ -1699,6 +1818,10 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:P32"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
